--- a/Dataset/Mood_table.xlsx
+++ b/Dataset/Mood_table.xlsx
@@ -4,82 +4,165 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="144" windowWidth="28356" windowHeight="12456"/>
+    <workbookView xWindow="288" yWindow="24" windowWidth="20868" windowHeight="10080"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Dataset_mood" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+  <si>
+    <t>Vive la clim, je dors au frais et ca me permet d'etre reposée pour la journée à venir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai très mal dormi à cause de la chaleur et des moustiques! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je me suis fait réveiller par les aboiements du chien du voisin, je suis d'humeur massacrante! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aujourd'hui c'est télétravail, et ca m'arrange bien. Je vais éviter les bouchons! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je ne veux pas aller travailler, je veux changer d'entreprise! Ils m'énervent tous! </t>
+  </si>
+  <si>
+    <t>Ma famille arrive dans 2h, je suis contente de les retrouver.</t>
+  </si>
+  <si>
+    <t>Je suis déprimée, je n'ai envie de rien!</t>
+  </si>
+  <si>
+    <t>Il fait beau et pas trop chaud, je suis en pleine forme, je vais en profiter pour aller courir.</t>
+  </si>
+  <si>
+    <t>Ma soeur se marie aujourd'hui! Quelle belle journée en perspective!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ca faisait longtemps qu'il n'avait pas plu, je vais en profiter pour aller au cinéma cet après midi. </t>
+  </si>
+  <si>
+    <t>Et c'est parti pour une session ménage! ça ne me plait pas, mais il faut le faire!</t>
+  </si>
+  <si>
+    <t>Stréssée par mon entretien d'embauche cet après midi. J'espère être convaincante!</t>
+  </si>
+  <si>
+    <t>Il fait beau, il fait chaud, les oiseaux chantent, je suis d'humeur joyeuse</t>
+  </si>
+  <si>
+    <t>Vive les grasses matinées!</t>
+  </si>
+  <si>
+    <t>Je suis épuisée, j'en ai marre de me lever tôt tous les matins, j'ai besoin de vacances!</t>
+  </si>
+  <si>
+    <t>La chienne a mangé une de mes plantes préférées pendant la nuit! Ca m'énerve!!!!</t>
+  </si>
+  <si>
+    <t>J'ai eu de la fièvre cette nuit, je suis KO, je ne vais pas pouvoir aller travailler aujourd'hui</t>
+  </si>
+  <si>
+    <t>Jules est encore malade, j'en ai marre d'aller chez le médecin!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trop hâte d'etre ce soir pour aller boire un verre avec les copains! </t>
+  </si>
+  <si>
+    <t>J'ai très mal dormi, j'ai fait des cauchemars! Je sens que la journée va être longue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trop contente, je vais kiter toute la journée !! </t>
+  </si>
+  <si>
+    <t>C'est l'enterrement de ma cousine aujourd'hui, je suis trop triste. J'espère ne pas craquer et pleurer devant tout le monde</t>
+  </si>
+  <si>
+    <t>Ma cousine est morte, je suis trop choquée mais pas le choix, je dois aller bosser. J'ai bien besoin de joie autour de moi aujourd'hui !</t>
+  </si>
+  <si>
+    <t>On passe la journée chez les grands parents aujourd'hui, je sens que ça va être d'un ennui mortel</t>
+  </si>
+  <si>
+    <t>Grosse journée de travail aujourd'hui, pas le choix, je dois faire bonne impression !</t>
+  </si>
+  <si>
+    <t>Trop contente, je vois Nicolas au boulot aujourd'hui, je veux être trop belle pour lui</t>
+  </si>
+  <si>
+    <t>Je trouve rien à me mettre, je dois me racheter des vêtements</t>
+  </si>
+  <si>
+    <t>Je suis complétement à la bourre !!!!</t>
+  </si>
+  <si>
+    <t>J'ai trop faim</t>
+  </si>
+  <si>
+    <t>Hâte d'aller au travail et de raconter mon week end à mes collègues</t>
+  </si>
+  <si>
+    <t>Ce boulot me soule, j'en ai trop marre, j'ai envie de tout plaquer</t>
+  </si>
+  <si>
+    <t>Il pleut, je suis crevée, et j'ai loupé mon réveil. Mauvaise journée en perspective</t>
+  </si>
+  <si>
+    <t>J'ai bien dormi, je me sens reposée, je sens que ça va être une bonne journée</t>
+  </si>
+  <si>
+    <t>J'ai une réunion tout à l'heure, je suis trop motivée pour présenter mon projet !</t>
+  </si>
+  <si>
+    <t>Trop dur de se lever ce matin….</t>
+  </si>
+  <si>
+    <t>Journée shopping avec les copines, ça va être trop cool ! On va bien s'amuser !</t>
+  </si>
+  <si>
+    <t>Je suis trop contente, aujourd'hui je vois Clément pour la première fois. J'espère lui faire bonne impression !</t>
+  </si>
+  <si>
+    <t>Il fait trop beau et chaud, j'ai trop hâte d'aller à la plage</t>
+  </si>
+  <si>
+    <t>Il fait froid dehors, j'ai trop envie de rester dans mon lit au chaud</t>
+  </si>
+  <si>
+    <t>Je suis en pleine forme pour mon entretien avec mon responsable</t>
+  </si>
+  <si>
+    <t>Je suis fatiguée, et je sais que j'ai une grosse journée de travail qui m'attend</t>
+  </si>
   <si>
     <t>day_mood</t>
-  </si>
-  <si>
-    <t>Je suis fatiguée, et je sais que j'ai une grosse journée de travail qui m'attend</t>
-  </si>
-  <si>
-    <t>Je suis en pleine forme pour mon entretien avec mon responsable</t>
-  </si>
-  <si>
-    <t>Il fait froid dehors, j'ai trop envie de rester dans mon lit au chaud</t>
-  </si>
-  <si>
-    <t>Il fait trop beau et chaud, j'ai trop hâte d'aller à la plage</t>
-  </si>
-  <si>
-    <t>Je suis trop contente, aujourd'hui je vois Clément pour la première fois. J'espère lui faire bonne impression !</t>
-  </si>
-  <si>
-    <t>Journée shopping avec les copines, ça va être trop cool ! On va bien s'amuser !</t>
-  </si>
-  <si>
-    <t>Trop dur de se lever ce matin….</t>
-  </si>
-  <si>
-    <t>J'ai une réunion tout à l'heure, je suis trop motivée pour présenter mon projet !</t>
-  </si>
-  <si>
-    <t>J'ai bien dormi, je me sens reposée, je sens que ça va être une bonne journée</t>
-  </si>
-  <si>
-    <t>Il pleut, je suis crevée, et j'ai loupé mon réveil. Mauvaise journée en perspective</t>
-  </si>
-  <si>
-    <t>Ce boulot me soule, j'en ai trop marre, j'ai envie de tout plaquer</t>
-  </si>
-  <si>
-    <t>Hâte d'aller au travail et de raconter mon week end à mes collègues</t>
-  </si>
-  <si>
-    <t>J'ai trop faim</t>
-  </si>
-  <si>
-    <t>Je suis complétement à la bourre !!!!</t>
-  </si>
-  <si>
-    <t>Je trouve rien à me mettre, je dois me racheter des vêtements</t>
-  </si>
-  <si>
-    <t>Trop contente, je vois Nicolas au boulot, je veux être trop belle pour lui</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,8 +185,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,175 +487,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="88.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1"/>
+    <col min="2" max="2" width="98.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="B2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="13.8">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="13.8">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.8">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.8">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="13.8">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="13.8">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="13.8">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="13.8">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="13.8">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="13.8">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="13.8">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="13.8">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="13.8">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="13.8">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="13.8">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="13.8">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="13.8">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="13.8">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="13.8">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="13.8">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>